--- a/My Notes/PDSA/Time Complexities of Algorithms.xlsx
+++ b/My Notes/PDSA/Time Complexities of Algorithms.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\IIT-M\Programming Data Structures and Algorithms Using Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Official\GitHub\IIT-M\My Notes\PDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFAE6EA-B5DE-46AD-93D3-9CC19DEBD075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F9DB43E-BA75-4229-AE8E-E01EE866D9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5C42CCC7-008D-4AC4-95D9-90038B64D50F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>Anand Iyer</author>
   </authors>
   <commentList>
-    <comment ref="A24" authorId="0" shapeId="0" xr:uid="{FDF70D14-C93C-423D-9095-8E31DA495787}">
+    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{FDF70D14-C93C-423D-9095-8E31DA495787}">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="110">
   <si>
     <t>Algorithm</t>
   </si>
@@ -163,10 +163,6 @@
     <t>T(V, E) = T(V, E) + O(V)</t>
   </si>
   <si>
-    <t>O((V + E)log V)
-O(V2)</t>
-  </si>
-  <si>
     <t>Binary/Fibonacci heap
 Simple array</t>
   </si>
@@ -226,149 +222,172 @@
 Use MoM for partitioning</t>
   </si>
   <si>
-    <t>O(n2)
+    <t>QuickSelect</t>
+  </si>
+  <si>
+    <t>T(n) = T(n/2) + O(n)</t>
+  </si>
+  <si>
+    <t>Uses MoM</t>
+  </si>
+  <si>
+    <t>Uses random pivot</t>
+  </si>
+  <si>
+    <t>FastSelect</t>
+  </si>
+  <si>
+    <t>Many duplicates in array</t>
+  </si>
+  <si>
+    <t>T(n) = T(3n/10) + T(7n/10) + O(n)</t>
+  </si>
+  <si>
+    <t>Array is sorted in reverse</t>
+  </si>
+  <si>
+    <t>T(n) &lt;= T(2n/3) + O(1)</t>
+  </si>
+  <si>
+    <t>O(logn)</t>
+  </si>
+  <si>
+    <t>Heapify(Heap)</t>
+  </si>
+  <si>
+    <t>Insert(Heap)</t>
+  </si>
+  <si>
+    <t>T(n) = O(logn)</t>
+  </si>
+  <si>
+    <t>Extract(Heap)</t>
+  </si>
+  <si>
+    <t>Delete(Heap)</t>
+  </si>
+  <si>
+    <t>Build(Heap)</t>
+  </si>
+  <si>
+    <t>T(n) = O(n)</t>
+  </si>
+  <si>
+    <t>T(n) = T(h) + O(1)</t>
+  </si>
+  <si>
+    <t>Insert(BST)</t>
+  </si>
+  <si>
+    <t>h = tree height</t>
+  </si>
+  <si>
+    <t>BST is empty</t>
+  </si>
+  <si>
+    <t>O(log n)</t>
+  </si>
+  <si>
+    <t>Tree is balanced</t>
+  </si>
+  <si>
+    <t>Tree is skewed</t>
+  </si>
+  <si>
+    <t>Delete(BST)</t>
+  </si>
+  <si>
+    <t>Node has no children</t>
+  </si>
+  <si>
+    <t>Search(BST)</t>
+  </si>
+  <si>
+    <t>Target is root</t>
+  </si>
+  <si>
+    <t>Traversal(BST)</t>
+  </si>
+  <si>
+    <t>T(n) = 3T(n/2) + O(n)</t>
+  </si>
+  <si>
+    <t>multiply two n-digit numbers</t>
+  </si>
+  <si>
+    <t>O(n^log3)</t>
+  </si>
+  <si>
+    <t>Karatsuba</t>
+  </si>
+  <si>
+    <t>Search(AVL)</t>
+  </si>
+  <si>
+    <t>n = number of nodes</t>
+  </si>
+  <si>
+    <t>Insert(AVL)</t>
+  </si>
+  <si>
+    <t>Delete(AVL)</t>
+  </si>
+  <si>
+    <t>Rotate(AVL)</t>
+  </si>
+  <si>
+    <t>Rebalance(AVL)</t>
+  </si>
+  <si>
+    <t>Interval Scheduling</t>
+  </si>
+  <si>
+    <t>T(n) = O(n^2)</t>
+  </si>
+  <si>
+    <t>n = number of jobs</t>
+  </si>
+  <si>
+    <t>Intervals are already sorted</t>
+  </si>
+  <si>
+    <t>Minimizing lateness</t>
+  </si>
+  <si>
+    <t>Huffman</t>
+  </si>
+  <si>
+    <t>n = number of symbols</t>
+  </si>
+  <si>
+    <t>amortized n heapify ops</t>
+  </si>
+  <si>
+    <t>O(n^2)
 O(nlogn)</t>
   </si>
   <si>
-    <t>QuickSelect</t>
-  </si>
-  <si>
-    <t>T(n) = T(n/2) + O(n)</t>
-  </si>
-  <si>
-    <t>Uses MoM</t>
-  </si>
-  <si>
-    <t>Uses random pivot</t>
-  </si>
-  <si>
-    <t>FastSelect</t>
-  </si>
-  <si>
-    <t>Many duplicates in array</t>
-  </si>
-  <si>
-    <t>T(n) = T(3n/10) + T(7n/10) + O(n)</t>
-  </si>
-  <si>
-    <t>Array is sorted in reverse</t>
-  </si>
-  <si>
-    <t>T(n) &lt;= T(2n/3) + O(1)</t>
-  </si>
-  <si>
-    <t>O(logn)</t>
-  </si>
-  <si>
-    <t>Heapify(Heap)</t>
-  </si>
-  <si>
-    <t>Insert(Heap)</t>
-  </si>
-  <si>
-    <t>T(n) = O(logn)</t>
-  </si>
-  <si>
-    <t>Extract(Heap)</t>
-  </si>
-  <si>
-    <t>Delete(Heap)</t>
-  </si>
-  <si>
-    <t>Build(Heap)</t>
-  </si>
-  <si>
-    <t>T(n) = O(n)</t>
-  </si>
-  <si>
-    <t>T(n) = T(h) + O(1)</t>
-  </si>
-  <si>
-    <t>Insert(BST)</t>
-  </si>
-  <si>
-    <t>h = tree height</t>
-  </si>
-  <si>
-    <t>BST is empty</t>
-  </si>
-  <si>
-    <t>O(log n)</t>
-  </si>
-  <si>
-    <t>Tree is balanced</t>
-  </si>
-  <si>
-    <t>Tree is skewed</t>
-  </si>
-  <si>
-    <t>Delete(BST)</t>
-  </si>
-  <si>
-    <t>Node has no children</t>
-  </si>
-  <si>
-    <t>Search(BST)</t>
-  </si>
-  <si>
-    <t>Target is root</t>
-  </si>
-  <si>
-    <t>Traversal(BST)</t>
-  </si>
-  <si>
-    <t>T(n) = 3T(n/2) + O(n)</t>
-  </si>
-  <si>
-    <t>multiply two n-digit numbers</t>
-  </si>
-  <si>
-    <t>O(n^log3)</t>
-  </si>
-  <si>
-    <t>Karatsuba</t>
-  </si>
-  <si>
-    <t>Search(AVL)</t>
-  </si>
-  <si>
-    <t>n = number of nodes</t>
-  </si>
-  <si>
-    <t>Insert(AVL)</t>
-  </si>
-  <si>
-    <t>Delete(AVL)</t>
-  </si>
-  <si>
-    <t>Rotate(AVL)</t>
-  </si>
-  <si>
-    <t>Rebalance(AVL)</t>
-  </si>
-  <si>
-    <t>Interval Scheduling</t>
-  </si>
-  <si>
-    <t>T(n) = O(n^2)</t>
-  </si>
-  <si>
-    <t>n = number of jobs</t>
-  </si>
-  <si>
-    <t>Intervals are already sorted</t>
-  </si>
-  <si>
-    <t>Minimizing lateness</t>
-  </si>
-  <si>
-    <t>Huffman</t>
-  </si>
-  <si>
-    <t>n = number of symbols</t>
-  </si>
-  <si>
-    <t>amortized n heapify ops</t>
+    <t>O(n^2)</t>
+  </si>
+  <si>
+    <t>O((V + E)log V)
+O(n^2)</t>
+  </si>
+  <si>
+    <t>O((V + E)log V)
+O(V^2)</t>
+  </si>
+  <si>
+    <t>Union-Find</t>
+  </si>
+  <si>
+    <t>same component nodes</t>
+  </si>
+  <si>
+    <t>O(V logV)</t>
+  </si>
+  <si>
+    <t>Sequence of Union-Find ops</t>
   </si>
 </sst>
 </file>
@@ -569,8 +588,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3AB3CEB8-4A06-4D92-9E25-4B7EFF70A215}" name="Table1" displayName="Table1" ref="A1:I33" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I33" xr:uid="{3AB3CEB8-4A06-4D92-9E25-4B7EFF70A215}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3AB3CEB8-4A06-4D92-9E25-4B7EFF70A215}" name="Table1" displayName="Table1" ref="A1:I34" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I34" xr:uid="{3AB3CEB8-4A06-4D92-9E25-4B7EFF70A215}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7AF0A783-9403-4861-A946-6D4724F0BEE5}" name="Algorithm" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{24C49CDE-CEFE-414B-BAEA-0093EA27CFDE}" name="Recurrence relation" dataDxfId="7"/>
@@ -883,9 +902,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5892C8-CEFB-4EF2-A077-670A4997AB20}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -895,7 +916,7 @@
     <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.28515625" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="2"/>
@@ -906,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
@@ -950,10 +971,10 @@
         <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -993,7 +1014,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -1016,16 +1037,16 @@
         <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1045,13 +1066,13 @@
         <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>27</v>
@@ -1071,7 +1092,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>29</v>
@@ -1094,7 +1115,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>29</v>
@@ -1117,27 +1138,27 @@
         <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="H9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>33</v>
@@ -1146,41 +1167,41 @@
         <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>35</v>
@@ -1189,79 +1210,82 @@
         <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="H12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>24</v>
+        <v>108</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>23</v>
@@ -1270,21 +1294,24 @@
         <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>24</v>
+        <v>103</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>23</v>
@@ -1292,321 +1319,324 @@
       <c r="D16" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="E16" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="F16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>17</v>
@@ -1618,41 +1648,41 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>12</v>
@@ -1661,15 +1691,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>12</v>
@@ -1678,6 +1708,26 @@
         <v>12</v>
       </c>
       <c r="H33" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>12</v>
       </c>
     </row>

--- a/My Notes/PDSA/Time Complexities of Algorithms.xlsx
+++ b/My Notes/PDSA/Time Complexities of Algorithms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Official\GitHub\IIT-M\My Notes\PDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F9DB43E-BA75-4229-AE8E-E01EE866D9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D70BAC5-DEC0-4610-86BE-3726A5B496E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5C42CCC7-008D-4AC4-95D9-90038B64D50F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{5C42CCC7-008D-4AC4-95D9-90038B64D50F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,174 @@
     <author>Anand Iyer</author>
   </authors>
   <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{AD534CBA-AFAE-4849-9041-0049CA6E17D0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Partitioning takes O(n)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{AF7FE35D-ACDB-4C08-839C-0F79A3FB882E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Divide-Conquer</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{5B4EC805-E26C-4412-B7EB-217F7E98C1BB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Merge step takes O(n)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{C77AA502-9A81-47B5-8976-FF3ACDB312BF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Uses nested loop</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{8129A710-A86F-4A70-B69C-9F4C8EBE93A1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Greedy algorithm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{C701EF28-C83E-4191-8B50-835D924C4F80}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dynamic Programming</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{A95FE824-4618-479E-A231-A4E84F29B068}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dynamic Programming</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{A1847F6F-958C-47EC-80AF-0AD9E01D6807}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Greedy algorithm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{68988B52-9D2B-46D1-9FD5-4C4D722D83C3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Greedy algorithm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{E6076F1E-6DD3-40A5-966B-CEAFB1512959}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Uses MoM as pivot</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{BFEFD2AC-F949-4B27-ABDA-BE1BADF07D8F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Uses random pivot</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{B09EF968-4352-4CFB-88EA-E047DDFD4A0D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Amortized 'n' heapify operations</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A25" authorId="0" shapeId="0" xr:uid="{FDF70D14-C93C-423D-9095-8E31DA495787}">
       <text>
         <r>
@@ -44,12 +212,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="A32" authorId="0" shapeId="0" xr:uid="{B1EED80B-B491-4433-8367-32332FA70239}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Greedy algorithm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{165D9E54-28B4-4A1F-9067-16C40B0DE3AB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Greedy algorithm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0" xr:uid="{194D09D3-0E01-49BD-8F5D-AE5D560B557F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Greedy algorithm</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="103">
   <si>
     <t>Algorithm</t>
   </si>
@@ -60,9 +270,6 @@
     <t>T(n) = T(k) + T(n-k-1) + O(n)</t>
   </si>
   <si>
-    <t>O(n2)</t>
-  </si>
-  <si>
     <t>Variables</t>
   </si>
   <si>
@@ -93,15 +300,6 @@
     <t>T(n) = 2T(n/2) + O(n)</t>
   </si>
   <si>
-    <t>n = array elements
-Merge step takes O(n)</t>
-  </si>
-  <si>
-    <t>k = pivot index, 
-n = array elements.  
-Partitioning takes O(n)</t>
-  </si>
-  <si>
     <t>MergeSort</t>
   </si>
   <si>
@@ -109,9 +307,6 @@
   </si>
   <si>
     <t>Array is already sorted</t>
-  </si>
-  <si>
-    <t>Divide-Conquer</t>
   </si>
   <si>
     <t>HeapSort</t>
@@ -136,9 +331,6 @@
     <t>SeletionSort</t>
   </si>
   <si>
-    <t>Use nested loop</t>
-  </si>
-  <si>
     <t>BFS</t>
   </si>
   <si>
@@ -228,12 +420,6 @@
     <t>T(n) = T(n/2) + O(n)</t>
   </si>
   <si>
-    <t>Uses MoM</t>
-  </si>
-  <si>
-    <t>Uses random pivot</t>
-  </si>
-  <si>
     <t>FastSelect</t>
   </si>
   <si>
@@ -358,9 +544,6 @@
   </si>
   <si>
     <t>n = number of symbols</t>
-  </si>
-  <si>
-    <t>amortized n heapify ops</t>
   </si>
   <si>
     <t>O(n^2)
@@ -388,13 +571,17 @@
   </si>
   <si>
     <t>Sequence of Union-Find ops</t>
+  </si>
+  <si>
+    <t>k = pivot index, 
+n = array elements.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +618,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -904,54 +1098,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5892C8-CEFB-4EF2-A077-670A4997AB20}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="9" width="29.33203125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -959,776 +1153,749 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="E22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="I22" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="D33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="B34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/My Notes/PDSA/Time Complexities of Algorithms.xlsx
+++ b/My Notes/PDSA/Time Complexities of Algorithms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Official\GitHub\IIT-M\My Notes\PDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D70BAC5-DEC0-4610-86BE-3726A5B496E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7F534A9-A381-474B-8B45-D3D57D0D2A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{5C42CCC7-008D-4AC4-95D9-90038B64D50F}"/>
   </bookViews>
@@ -254,12 +254,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="A35" authorId="0" shapeId="0" xr:uid="{24CE95CB-B8FC-49BE-9650-C2E9234FB691}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Divide-Conquer</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A36" authorId="0" shapeId="0" xr:uid="{8D06B716-A17F-430D-A83E-8B114D3DA186}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Divide-Conquer</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B36" authorId="0" shapeId="0" xr:uid="{568BFD18-BB0C-4E62-93C5-407547870CB5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sorting points takes O(nlogn)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="108">
   <si>
     <t>Algorithm</t>
   </si>
@@ -575,6 +617,21 @@
   <si>
     <t>k = pivot index, 
 n = array elements.</t>
+  </si>
+  <si>
+    <t>Inversion count</t>
+  </si>
+  <si>
+    <t>Closest pair of points</t>
+  </si>
+  <si>
+    <t>T(n) = 2T(n/2) + O(nlogn)</t>
+  </si>
+  <si>
+    <t>All points have unique x</t>
+  </si>
+  <si>
+    <t>All points have same x</t>
   </si>
 </sst>
 </file>
@@ -782,8 +839,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3AB3CEB8-4A06-4D92-9E25-4B7EFF70A215}" name="Table1" displayName="Table1" ref="A1:I34" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I34" xr:uid="{3AB3CEB8-4A06-4D92-9E25-4B7EFF70A215}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3AB3CEB8-4A06-4D92-9E25-4B7EFF70A215}" name="Table1" displayName="Table1" ref="A1:I37" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I37" xr:uid="{3AB3CEB8-4A06-4D92-9E25-4B7EFF70A215}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7AF0A783-9403-4861-A946-6D4724F0BEE5}" name="Algorithm" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{24C49CDE-CEFE-414B-BAEA-0093EA27CFDE}" name="Recurrence relation" dataDxfId="7"/>
@@ -1096,21 +1153,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5892C8-CEFB-4EF2-A077-670A4997AB20}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.33203125" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9.109375" style="2"/>
@@ -1858,7 +1915,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>91</v>
       </c>
@@ -1878,7 +1935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>92</v>
       </c>
@@ -1896,6 +1953,52 @@
       </c>
       <c r="H34" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/My Notes/PDSA/Time Complexities of Algorithms.xlsx
+++ b/My Notes/PDSA/Time Complexities of Algorithms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Official\GitHub\IIT-M\My Notes\PDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7F534A9-A381-474B-8B45-D3D57D0D2A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{263B61E7-FED1-4AA1-9D5E-85D677E11547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{5C42CCC7-008D-4AC4-95D9-90038B64D50F}"/>
   </bookViews>
@@ -40,7 +40,9 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Partitioning takes O(n)</t>
+          <t>Partitioning is O(n)
+Worst case: 
+T(n) = T(n – 1)+O(n)</t>
         </r>
       </text>
     </comment>
@@ -68,7 +70,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Merge step takes O(n)</t>
+          <t>Merge step is O(n)</t>
         </r>
       </text>
     </comment>
@@ -292,7 +294,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Sorting points takes O(nlogn)</t>
+          <t>Sorting points is O(nlogn)</t>
         </r>
       </text>
     </comment>
@@ -1155,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5892C8-CEFB-4EF2-A077-670A4997AB20}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/My Notes/PDSA/Time Complexities of Algorithms.xlsx
+++ b/My Notes/PDSA/Time Complexities of Algorithms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Official\GitHub\IIT-M\My Notes\PDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{263B61E7-FED1-4AA1-9D5E-85D677E11547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FBDB850-35A8-4A7E-A98F-31BCD4D453DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{5C42CCC7-008D-4AC4-95D9-90038B64D50F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5C42CCC7-008D-4AC4-95D9-90038B64D50F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -228,6 +228,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{C765C3E0-BB1D-41CD-A7B6-179DF5ADFE6E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>https://pdsaiitm.github.io/ says it's O(nlogn).   Need to confirm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H32" authorId="0" shapeId="0" xr:uid="{06C1B337-CB8E-4E83-B889-ACD3E3BD9858}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>https://pdsaiitm.github.io/ says it's O(nlogn).   Need to confirm</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A33" authorId="0" shapeId="0" xr:uid="{165D9E54-28B4-4A1F-9067-16C40B0DE3AB}">
       <text>
         <r>
@@ -303,7 +331,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="109">
   <si>
     <t>Algorithm</t>
   </si>
@@ -572,9 +600,6 @@
     <t>Interval Scheduling</t>
   </si>
   <si>
-    <t>T(n) = O(n^2)</t>
-  </si>
-  <si>
     <t>n = number of jobs</t>
   </si>
   <si>
@@ -634,6 +659,12 @@
   </si>
   <si>
     <t>All points have same x</t>
+  </si>
+  <si>
+    <t>All elements are equal</t>
+  </si>
+  <si>
+    <t>T(n) = T(n - 1) + O(nlogn)</t>
   </si>
 </sst>
 </file>
@@ -1157,25 +1188,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5892C8-CEFB-4EF2-A077-670A4997AB20}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="24" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.33203125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="2"/>
+    <col min="9" max="9" width="29.28515625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1212,7 +1243,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -1224,13 +1255,13 @@
         <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1250,7 +1281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1261,10 +1292,19 @@
         <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1281,19 +1321,19 @@
         <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1304,16 +1344,16 @@
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1336,7 +1376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1359,7 +1399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -1376,19 +1416,19 @@
         <v>41</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -1411,7 +1451,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -1434,7 +1474,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -1451,19 +1491,19 @@
         <v>44</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -1486,9 +1526,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>21</v>
@@ -1500,22 +1540,22 @@
         <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="H14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
@@ -1532,13 +1572,13 @@
         <v>20</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
@@ -1558,7 +1598,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>58</v>
       </c>
@@ -1578,7 +1618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>59</v>
       </c>
@@ -1598,7 +1638,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>61</v>
       </c>
@@ -1618,7 +1658,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>62</v>
       </c>
@@ -1638,7 +1678,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>63</v>
       </c>
@@ -1658,7 +1698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>66</v>
       </c>
@@ -1687,7 +1727,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>72</v>
       </c>
@@ -1716,7 +1756,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>74</v>
       </c>
@@ -1745,7 +1785,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>76</v>
       </c>
@@ -1774,7 +1814,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>80</v>
       </c>
@@ -1794,7 +1834,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>81</v>
       </c>
@@ -1814,7 +1854,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>83</v>
       </c>
@@ -1834,7 +1874,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>84</v>
       </c>
@@ -1854,7 +1894,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>85</v>
       </c>
@@ -1874,7 +1914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>86</v>
       </c>
@@ -1894,38 +1934,38 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>11</v>
@@ -1937,15 +1977,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>11</v>
@@ -1957,9 +1997,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>12</v>
@@ -1974,15 +2014,15 @@
         <v>11</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>19</v>
@@ -1991,16 +2031,16 @@
         <v>11</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/My Notes/PDSA/Time Complexities of Algorithms.xlsx
+++ b/My Notes/PDSA/Time Complexities of Algorithms.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Official\GitHub\IIT-M\My Notes\PDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FBDB850-35A8-4A7E-A98F-31BCD4D453DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{032083B9-E405-4AEE-9D8F-B238BD9D1996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5C42CCC7-008D-4AC4-95D9-90038B64D50F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Info on Algos" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
     <author>Anand Iyer</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{AD534CBA-AFAE-4849-9041-0049CA6E17D0}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{C77AA502-9A81-47B5-8976-FF3ACDB312BF}">
       <text>
         <r>
           <rPr>
@@ -40,13 +41,11 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Partitioning is O(n)
-Worst case: 
-T(n) = T(n – 1)+O(n)</t>
+          <t>Uses nested loop</t>
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{AF7FE35D-ACDB-4C08-839C-0F79A3FB882E}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{AF7FE35D-ACDB-4C08-839C-0F79A3FB882E}">
       <text>
         <r>
           <rPr>
@@ -60,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{5B4EC805-E26C-4412-B7EB-217F7E98C1BB}">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{5B4EC805-E26C-4412-B7EB-217F7E98C1BB}">
       <text>
         <r>
           <rPr>
@@ -74,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{C77AA502-9A81-47B5-8976-FF3ACDB312BF}">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{AD534CBA-AFAE-4849-9041-0049CA6E17D0}">
       <text>
         <r>
           <rPr>
@@ -84,7 +83,9 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Uses nested loop</t>
+          <t>Partitioning is O(n)
+Worst case: 
+T(n) = T(n – 1)+O(n)</t>
         </r>
       </text>
     </comment>
@@ -331,7 +332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="111">
   <si>
     <t>Algorithm</t>
   </si>
@@ -623,10 +624,6 @@
   </si>
   <si>
     <t>O((V + E)log V)
-O(n^2)</t>
-  </si>
-  <si>
-    <t>O((V + E)log V)
 O(V^2)</t>
   </si>
   <si>
@@ -665,6 +662,15 @@
   </si>
   <si>
     <t>T(n) = T(n - 1) + O(nlogn)</t>
+  </si>
+  <si>
+    <t>O(V+E)</t>
+  </si>
+  <si>
+    <t>O((V+E)logV)</t>
+  </si>
+  <si>
+    <t>O(ElogE)</t>
   </si>
 </sst>
 </file>
@@ -869,6 +875,1146 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1202055</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE39A168-9F86-EAE9-875C-1332809C7D3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="266698"/>
+          <a:ext cx="1183005" cy="478157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Rotate AVL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Rebalance AVL</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8C3D88-F113-429B-9418-C61693DDA1DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="567690"/>
+          <a:ext cx="754380" cy="472440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>AVL Ops</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Heap Ops</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A62983FC-AE95-4E0C-88C4-64E078AC6F0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1986915" y="857250"/>
+          <a:ext cx="842010" cy="634365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BST Ops</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Build</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Heap</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FastSelect</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD20B597-F42F-469D-BCF5-96DAA319C5EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2847975" y="1325880"/>
+          <a:ext cx="1221105" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MergeSort</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QuickSort</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>HeapSort</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Heapify</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Lateness</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Huffman</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>InversionCount</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>ClosestPair</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>36195</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1314450</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54922327-B4D4-4888-82A0-E7BD10408FC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4093845" y="2625090"/>
+          <a:ext cx="1278255" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Karatsuba (n^1.6)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SeletionSort</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>InsertionSort</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>QuickSelect</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Interval Schedule</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1091565</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>49532</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0B98968-61DA-4D78-A097-425F7094AC03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7086600" y="295275"/>
+          <a:ext cx="1024890" cy="478157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>BFS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>DFS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1114424</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>45722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>847724</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>150497</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E462054D-D501-4B45-BB8F-E9F74F9E82A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8134349" y="769622"/>
+          <a:ext cx="847725" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Dijkstra</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Prim</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B436D98-93FD-4E1B-B3FD-B2DCEA6B63F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8993505" y="1228727"/>
+          <a:ext cx="693420" cy="285748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Kruskal</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>59057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{502C1657-CEA9-458F-B92E-15221E10FA41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9698355" y="1506857"/>
+          <a:ext cx="950595" cy="295273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bellman-Ford</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>962024</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>169547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1076324</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67111E07-507D-4FEA-8BF7-BE820F764AA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10658474" y="1798322"/>
+          <a:ext cx="1076325" cy="287653"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Floyd-Warshal</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1188,25 +2334,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5892C8-CEFB-4EF2-A077-670A4997AB20}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="24" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="9" width="29.33203125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1235,67 +2379,67 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>11</v>
@@ -1304,56 +2448,56 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>94</v>
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1376,7 +2520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1399,7 +2543,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -1416,7 +2560,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>31</v>
@@ -1428,7 +2572,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -1451,7 +2595,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -1474,7 +2618,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -1491,19 +2635,19 @@
         <v>44</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -1526,9 +2670,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>21</v>
@@ -1540,22 +2684,22 @@
         <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="H14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
@@ -1578,7 +2722,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
@@ -1598,7 +2742,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>58</v>
       </c>
@@ -1618,7 +2762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>59</v>
       </c>
@@ -1638,7 +2782,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>61</v>
       </c>
@@ -1658,7 +2802,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>62</v>
       </c>
@@ -1678,7 +2822,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>63</v>
       </c>
@@ -1698,7 +2842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>66</v>
       </c>
@@ -1727,7 +2871,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>72</v>
       </c>
@@ -1756,7 +2900,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>74</v>
       </c>
@@ -1785,7 +2929,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>76</v>
       </c>
@@ -1814,7 +2958,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>80</v>
       </c>
@@ -1834,7 +2978,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>81</v>
       </c>
@@ -1851,10 +2995,10 @@
         <v>69</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>83</v>
       </c>
@@ -1871,10 +3015,10 @@
         <v>69</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>84</v>
       </c>
@@ -1891,10 +3035,10 @@
         <v>69</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>85</v>
       </c>
@@ -1914,7 +3058,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>86</v>
       </c>
@@ -1934,12 +3078,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>88</v>
@@ -1957,7 +3101,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>90</v>
       </c>
@@ -1977,7 +3121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>91</v>
       </c>
@@ -1997,9 +3141,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>12</v>
@@ -2017,12 +3161,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>19</v>
@@ -2031,7 +3175,7 @@
         <v>11</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>11</v>
@@ -2040,7 +3184,7 @@
         <v>94</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2051,4 +3195,60 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7439E6-DDBD-4254-AE3C-39457A4778A7}">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/My Notes/PDSA/Time Complexities of Algorithms.xlsx
+++ b/My Notes/PDSA/Time Complexities of Algorithms.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Official\GitHub\IIT-M\My Notes\PDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{032083B9-E405-4AEE-9D8F-B238BD9D1996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2436D367-A32A-4649-BE98-609BB5025039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5C42CCC7-008D-4AC4-95D9-90038B64D50F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{5C42CCC7-008D-4AC4-95D9-90038B64D50F}"/>
   </bookViews>
   <sheets>
     <sheet name="Info on Algos" sheetId="1" r:id="rId1"/>
-    <sheet name="Chart" sheetId="4" r:id="rId2"/>
+    <sheet name="Worst cases" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -2334,7 +2334,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5892C8-CEFB-4EF2-A077-670A4997AB20}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3201,7 +3203,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7439E6-DDBD-4254-AE3C-39457A4778A7}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/My Notes/PDSA/Time Complexities of Algorithms.xlsx
+++ b/My Notes/PDSA/Time Complexities of Algorithms.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Official\GitHub\IIT-M\My Notes\PDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2436D367-A32A-4649-BE98-609BB5025039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{042985B3-BC41-41AF-A2F7-2BA8C034D930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{5C42CCC7-008D-4AC4-95D9-90038B64D50F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5C42CCC7-008D-4AC4-95D9-90038B64D50F}"/>
   </bookViews>
   <sheets>
     <sheet name="Info on Algos" sheetId="1" r:id="rId1"/>
-    <sheet name="Worst cases" sheetId="4" r:id="rId2"/>
+    <sheet name="Chart" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -2334,25 +2334,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5892C8-CEFB-4EF2-A077-670A4997AB20}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="24" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.33203125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="2"/>
+    <col min="9" max="9" width="29.28515625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>96</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>58</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>59</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>61</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>62</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>63</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>66</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>72</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>74</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>76</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>80</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>81</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>83</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>84</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>85</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>86</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>87</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>90</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>91</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>101</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>102</v>
       </c>
@@ -3204,22 +3204,22 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>

--- a/My Notes/PDSA/Time Complexities of Algorithms.xlsx
+++ b/My Notes/PDSA/Time Complexities of Algorithms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Official\GitHub\IIT-M\My Notes\PDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{042985B3-BC41-41AF-A2F7-2BA8C034D930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B32F137C-EEFC-4CFE-A579-0363DA6D2ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5C42CCC7-008D-4AC4-95D9-90038B64D50F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{5C42CCC7-008D-4AC4-95D9-90038B64D50F}"/>
   </bookViews>
   <sheets>
     <sheet name="Info on Algos" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{8129A710-A86F-4A70-B69C-9F4C8EBE93A1}">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{8129A710-A86F-4A70-B69C-9F4C8EBE93A1}">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{C701EF28-C83E-4191-8B50-835D924C4F80}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{C701EF28-C83E-4191-8B50-835D924C4F80}">
       <text>
         <r>
           <rPr>
@@ -117,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{A95FE824-4618-479E-A231-A4E84F29B068}">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{A95FE824-4618-479E-A231-A4E84F29B068}">
       <text>
         <r>
           <rPr>
@@ -131,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{A1847F6F-958C-47EC-80AF-0AD9E01D6807}">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{A1847F6F-958C-47EC-80AF-0AD9E01D6807}">
       <text>
         <r>
           <rPr>
@@ -145,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{68988B52-9D2B-46D1-9FD5-4C4D722D83C3}">
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{68988B52-9D2B-46D1-9FD5-4C4D722D83C3}">
       <text>
         <r>
           <rPr>
@@ -159,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{E6076F1E-6DD3-40A5-966B-CEAFB1512959}">
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{E6076F1E-6DD3-40A5-966B-CEAFB1512959}">
       <text>
         <r>
           <rPr>
@@ -173,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{BFEFD2AC-F949-4B27-ABDA-BE1BADF07D8F}">
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{BFEFD2AC-F949-4B27-ABDA-BE1BADF07D8F}">
       <text>
         <r>
           <rPr>
@@ -187,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{B09EF968-4352-4CFB-88EA-E047DDFD4A0D}">
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{B09EF968-4352-4CFB-88EA-E047DDFD4A0D}">
       <text>
         <r>
           <rPr>
@@ -201,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{FDF70D14-C93C-423D-9095-8E31DA495787}">
+    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{FDF70D14-C93C-423D-9095-8E31DA495787}">
       <text>
         <r>
           <rPr>
@@ -215,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A32" authorId="0" shapeId="0" xr:uid="{B1EED80B-B491-4433-8367-32332FA70239}">
+    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{B1EED80B-B491-4433-8367-32332FA70239}">
       <text>
         <r>
           <rPr>
@@ -229,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{C765C3E0-BB1D-41CD-A7B6-179DF5ADFE6E}">
+    <comment ref="F33" authorId="0" shapeId="0" xr:uid="{C765C3E0-BB1D-41CD-A7B6-179DF5ADFE6E}">
       <text>
         <r>
           <rPr>
@@ -243,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H32" authorId="0" shapeId="0" xr:uid="{06C1B337-CB8E-4E83-B889-ACD3E3BD9858}">
+    <comment ref="H33" authorId="0" shapeId="0" xr:uid="{06C1B337-CB8E-4E83-B889-ACD3E3BD9858}">
       <text>
         <r>
           <rPr>
@@ -257,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{165D9E54-28B4-4A1F-9067-16C40B0DE3AB}">
+    <comment ref="A34" authorId="0" shapeId="0" xr:uid="{165D9E54-28B4-4A1F-9067-16C40B0DE3AB}">
       <text>
         <r>
           <rPr>
@@ -271,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A34" authorId="0" shapeId="0" xr:uid="{194D09D3-0E01-49BD-8F5D-AE5D560B557F}">
+    <comment ref="A35" authorId="0" shapeId="0" xr:uid="{194D09D3-0E01-49BD-8F5D-AE5D560B557F}">
       <text>
         <r>
           <rPr>
@@ -285,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A35" authorId="0" shapeId="0" xr:uid="{24CE95CB-B8FC-49BE-9650-C2E9234FB691}">
+    <comment ref="A36" authorId="0" shapeId="0" xr:uid="{24CE95CB-B8FC-49BE-9650-C2E9234FB691}">
       <text>
         <r>
           <rPr>
@@ -299,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A36" authorId="0" shapeId="0" xr:uid="{8D06B716-A17F-430D-A83E-8B114D3DA186}">
+    <comment ref="A37" authorId="0" shapeId="0" xr:uid="{8D06B716-A17F-430D-A83E-8B114D3DA186}">
       <text>
         <r>
           <rPr>
@@ -313,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B36" authorId="0" shapeId="0" xr:uid="{568BFD18-BB0C-4E62-93C5-407547870CB5}">
+    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{568BFD18-BB0C-4E62-93C5-407547870CB5}">
       <text>
         <r>
           <rPr>
@@ -332,7 +332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="117">
   <si>
     <t>Algorithm</t>
   </si>
@@ -671,6 +671,24 @@
   </si>
   <si>
     <t>O(ElogE)</t>
+  </si>
+  <si>
+    <t>Topological sort</t>
+  </si>
+  <si>
+    <t>T(n) = T(n-k) + O(k + E)</t>
+  </si>
+  <si>
+    <t>k = nodes with 0 indegree; E = edges</t>
+  </si>
+  <si>
+    <t>already topologically sorted</t>
+  </si>
+  <si>
+    <t>Graph is random</t>
+  </si>
+  <si>
+    <t>Graph is a linear chain or a tree.</t>
   </si>
 </sst>
 </file>
@@ -2018,8 +2036,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3AB3CEB8-4A06-4D92-9E25-4B7EFF70A215}" name="Table1" displayName="Table1" ref="A1:I37" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I37" xr:uid="{3AB3CEB8-4A06-4D92-9E25-4B7EFF70A215}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3AB3CEB8-4A06-4D92-9E25-4B7EFF70A215}" name="Table1" displayName="Table1" ref="A1:I38" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I38" xr:uid="{3AB3CEB8-4A06-4D92-9E25-4B7EFF70A215}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{7AF0A783-9403-4861-A946-6D4724F0BEE5}" name="Algorithm" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{24C49CDE-CEFE-414B-BAEA-0093EA27CFDE}" name="Recurrence relation" dataDxfId="7"/>
@@ -2332,27 +2350,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5892C8-CEFB-4EF2-A077-670A4997AB20}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="24" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="9" width="29.33203125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2381,7 +2399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -2401,7 +2419,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -2430,7 +2448,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2450,7 +2468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2476,7 +2494,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -2499,7 +2517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2522,7 +2540,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -2545,41 +2563,41 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>28</v>
@@ -2591,145 +2609,151 @@
         <v>41</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="E14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="H14" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>19</v>
@@ -2741,15 +2765,18 @@
         <v>20</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>19</v>
@@ -2761,32 +2788,32 @@
         <v>20</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>60</v>
@@ -2804,9 +2831,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>60</v>
@@ -2824,58 +2851,49 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>65</v>
@@ -2887,7 +2905,7 @@
         <v>14</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>69</v>
@@ -2902,9 +2920,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>65</v>
@@ -2916,7 +2934,7 @@
         <v>14</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>69</v>
@@ -2931,9 +2949,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>65</v>
@@ -2945,7 +2963,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>69</v>
@@ -2960,49 +2978,58 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>21</v>
@@ -3020,9 +3047,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>21</v>
@@ -3040,9 +3067,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>21</v>
@@ -3051,18 +3078,18 @@
         <v>82</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>21</v>
@@ -3080,58 +3107,58 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>11</v>
@@ -3143,15 +3170,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>11</v>
@@ -3160,15 +3187,15 @@
         <v>11</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>19</v>
@@ -3176,16 +3203,36 @@
       <c r="D36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I36" s="2" t="s">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3207,19 +3254,19 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="19.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>

--- a/My Notes/PDSA/Time Complexities of Algorithms.xlsx
+++ b/My Notes/PDSA/Time Complexities of Algorithms.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Official\GitHub\IIT-M\My Notes\PDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B32F137C-EEFC-4CFE-A579-0363DA6D2ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43A6D9E7-D784-4F32-9FEE-8FDC23EECAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{5C42CCC7-008D-4AC4-95D9-90038B64D50F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5C42CCC7-008D-4AC4-95D9-90038B64D50F}"/>
   </bookViews>
   <sheets>
     <sheet name="Info on Algos" sheetId="1" r:id="rId1"/>
     <sheet name="Chart" sheetId="4" r:id="rId2"/>
+    <sheet name="Boyer Moore" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Uses nested loop</t>
         </r>
@@ -53,7 +54,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Divide-Conquer</t>
         </r>
@@ -67,7 +68,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Merge step is O(n)</t>
         </r>
@@ -81,7 +82,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Partitioning is O(n)
 Worst case: 
@@ -97,7 +98,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Greedy algorithm</t>
         </r>
@@ -111,7 +112,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Dynamic Programming</t>
         </r>
@@ -125,7 +126,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Dynamic Programming</t>
         </r>
@@ -139,7 +140,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Greedy algorithm</t>
         </r>
@@ -153,7 +154,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Greedy algorithm</t>
         </r>
@@ -167,7 +168,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Uses MoM as pivot</t>
         </r>
@@ -181,7 +182,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Uses random pivot</t>
         </r>
@@ -195,7 +196,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Amortized 'n' heapify operations</t>
         </r>
@@ -223,7 +224,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Greedy algorithm</t>
         </r>
@@ -237,7 +238,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>https://pdsaiitm.github.io/ says it's O(nlogn).   Need to confirm</t>
         </r>
@@ -251,7 +252,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>https://pdsaiitm.github.io/ says it's O(nlogn).   Need to confirm</t>
         </r>
@@ -265,7 +266,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Greedy algorithm</t>
         </r>
@@ -279,7 +280,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Greedy algorithm</t>
         </r>
@@ -293,7 +294,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Divide-Conquer</t>
         </r>
@@ -307,7 +308,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Divide-Conquer</t>
         </r>
@@ -321,7 +322,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Sorting points is O(nlogn)</t>
         </r>
@@ -332,7 +333,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="141">
   <si>
     <t>Algorithm</t>
   </si>
@@ -689,13 +690,85 @@
   </si>
   <si>
     <t>Graph is a linear chain or a tree.</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Move pattern after 'f' in text (shift 7)</t>
+  </si>
+  <si>
+    <t>Align ' ' in text and pattern (shift 4)</t>
+  </si>
+  <si>
+    <t>Move pattern after 'l' in text (shift 6)</t>
+  </si>
+  <si>
+    <t>Align ' ' in text and pattern (shift 2)</t>
+  </si>
+  <si>
+    <t>Align ' ' in text and pattern (shift 3)</t>
+  </si>
+  <si>
+    <t>First complete match (shift 1)</t>
+  </si>
+  <si>
+    <t>Move one character</t>
+  </si>
+  <si>
+    <t>can't move any further</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -733,20 +806,25 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -798,7 +876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -818,6 +896,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2356,21 +2437,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="24" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.33203125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="2"/>
+    <col min="9" max="9" width="29.28515625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2399,7 +2480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -2419,7 +2500,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -2448,7 +2529,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2468,7 +2549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2494,7 +2575,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -2517,7 +2598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2540,7 +2621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -2563,7 +2644,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>111</v>
       </c>
@@ -2592,7 +2673,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -2621,7 +2702,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -2644,7 +2725,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -2667,7 +2748,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -2696,7 +2777,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
@@ -2719,7 +2800,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>96</v>
       </c>
@@ -2748,7 +2829,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
@@ -2771,7 +2852,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
@@ -2791,7 +2872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>58</v>
       </c>
@@ -2811,7 +2892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>59</v>
       </c>
@@ -2831,7 +2912,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>61</v>
       </c>
@@ -2851,7 +2932,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -2871,7 +2952,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>63</v>
       </c>
@@ -2891,7 +2972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>66</v>
       </c>
@@ -2920,7 +3001,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
@@ -2949,7 +3030,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>74</v>
       </c>
@@ -2978,7 +3059,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>76</v>
       </c>
@@ -3007,7 +3088,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>80</v>
       </c>
@@ -3027,7 +3108,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>81</v>
       </c>
@@ -3047,7 +3128,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>83</v>
       </c>
@@ -3067,7 +3148,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>84</v>
       </c>
@@ -3087,7 +3168,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>85</v>
       </c>
@@ -3107,7 +3188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>86</v>
       </c>
@@ -3127,7 +3208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>87</v>
       </c>
@@ -3150,7 +3231,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>90</v>
       </c>
@@ -3170,7 +3251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>91</v>
       </c>
@@ -3190,7 +3271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>101</v>
       </c>
@@ -3210,7 +3291,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>102</v>
       </c>
@@ -3254,19 +3335,19 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3302,4 +3383,424 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837FCD45-94CC-4532-BD18-4343FBD6FD84}">
+  <dimension ref="A1:AJ11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AL17" sqref="AL17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="35" width="3" customWidth="1"/>
+    <col min="36" max="36" width="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
+        <v>14</v>
+      </c>
+      <c r="O1">
+        <v>15</v>
+      </c>
+      <c r="P1">
+        <v>16</v>
+      </c>
+      <c r="Q1">
+        <v>17</v>
+      </c>
+      <c r="R1">
+        <v>18</v>
+      </c>
+      <c r="S1">
+        <v>19</v>
+      </c>
+      <c r="T1">
+        <v>20</v>
+      </c>
+      <c r="U1">
+        <v>21</v>
+      </c>
+      <c r="V1">
+        <v>22</v>
+      </c>
+      <c r="W1">
+        <v>23</v>
+      </c>
+      <c r="X1">
+        <v>24</v>
+      </c>
+      <c r="Y1">
+        <v>25</v>
+      </c>
+      <c r="Z1">
+        <v>26</v>
+      </c>
+      <c r="AA1">
+        <v>27</v>
+      </c>
+      <c r="AB1">
+        <v>28</v>
+      </c>
+      <c r="AC1">
+        <v>29</v>
+      </c>
+      <c r="AD1">
+        <v>30</v>
+      </c>
+      <c r="AE1">
+        <v>31</v>
+      </c>
+      <c r="AF1">
+        <v>32</v>
+      </c>
+      <c r="AG1">
+        <v>33</v>
+      </c>
+      <c r="AH1">
+        <v>34</v>
+      </c>
+      <c r="AI1">
+        <v>35</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="R2" t="s">
+        <v>127</v>
+      </c>
+      <c r="S2" t="s">
+        <v>128</v>
+      </c>
+      <c r="T2" t="s">
+        <v>129</v>
+      </c>
+      <c r="V2" s="8"/>
+      <c r="W2" t="s">
+        <v>124</v>
+      </c>
+      <c r="X2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y2" s="8"/>
+      <c r="Z2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD2" s="8"/>
+      <c r="AE2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" t="s">
+        <v>124</v>
+      </c>
+      <c r="N4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>124</v>
+      </c>
+      <c r="M5" t="s">
+        <v>127</v>
+      </c>
+      <c r="O5" t="s">
+        <v>127</v>
+      </c>
+      <c r="P5" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="R5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="R6" t="s">
+        <v>124</v>
+      </c>
+      <c r="S6" t="s">
+        <v>127</v>
+      </c>
+      <c r="T6" s="8"/>
+      <c r="U6" t="s">
+        <v>127</v>
+      </c>
+      <c r="V6" t="s">
+        <v>119</v>
+      </c>
+      <c r="W6" t="s">
+        <v>124</v>
+      </c>
+      <c r="X6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="T7" t="s">
+        <v>124</v>
+      </c>
+      <c r="U7" t="s">
+        <v>127</v>
+      </c>
+      <c r="V7" s="8"/>
+      <c r="W7" t="s">
+        <v>127</v>
+      </c>
+      <c r="X7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="W8" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC8" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="X9" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z9" s="8"/>
+      <c r="AA9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AB10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH10" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AJ11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/My Notes/PDSA/Time Complexities of Algorithms.xlsx
+++ b/My Notes/PDSA/Time Complexities of Algorithms.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Official\GitHub\IIT-M\My Notes\PDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43A6D9E7-D784-4F32-9FEE-8FDC23EECAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A67990C-202F-48F0-B611-FF68019505A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5C42CCC7-008D-4AC4-95D9-90038B64D50F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="3" xr2:uid="{5C42CCC7-008D-4AC4-95D9-90038B64D50F}"/>
   </bookViews>
   <sheets>
     <sheet name="Info on Algos" sheetId="1" r:id="rId1"/>
     <sheet name="Chart" sheetId="4" r:id="rId2"/>
     <sheet name="Boyer Moore" sheetId="5" r:id="rId3"/>
+    <sheet name="Edit distance" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -333,7 +334,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="159">
   <si>
     <t>Algorithm</t>
   </si>
@@ -762,6 +763,60 @@
   </si>
   <si>
     <t>can't move any further</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Substitutions</t>
+  </si>
+  <si>
+    <t>2 substitutions (To -&gt; Ye)</t>
+  </si>
+  <si>
+    <t>Insertions</t>
+  </si>
+  <si>
+    <t>4 insertions (ster)</t>
+  </si>
+  <si>
+    <t>1 substitution (i -&gt; w)</t>
+  </si>
+  <si>
+    <t>1 insertion (a)</t>
+  </si>
+  <si>
+    <t>Deletions</t>
+  </si>
+  <si>
+    <t>3 substitutions (Tue -&gt; Mon)</t>
+  </si>
+  <si>
+    <t>1 deletion (s)</t>
+  </si>
+  <si>
+    <t>Total number of changes: 12</t>
   </si>
 </sst>
 </file>
@@ -2116,6 +2171,659 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{043D7B05-CA78-440C-9E0E-512A7E02ACE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="358140" y="464820"/>
+          <a:ext cx="876300" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="31000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>96774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>116587</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9262CB3-E282-4853-B005-0371A7FB6B28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2331720" y="462534"/>
+          <a:ext cx="198120" cy="385573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="31000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88197</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>79443</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C4A0C9A-9E26-41A7-B442-C917D0B711FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3581400" y="88197"/>
+          <a:ext cx="259080" cy="357006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="31000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{417C3B6C-6A6D-4560-82F5-EEEC91963CD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15240" y="464820"/>
+          <a:ext cx="320040" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050">
+            <a:alpha val="31000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>146475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>173565</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C82A852-680B-4CB2-900B-F47E641176C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2066715" y="457200"/>
+          <a:ext cx="240450" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050">
+            <a:alpha val="31000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D32EEBAF-5CC1-4964-8399-D8EBCC381072}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971800" y="472440"/>
+          <a:ext cx="586740" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050">
+            <a:alpha val="31000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>10391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>4849</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2C378D5-3068-4697-82EA-8F6DC5F69865}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914900" y="376151"/>
+          <a:ext cx="320040" cy="360218"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050">
+            <a:alpha val="31000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>170758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>172143</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AA50762-30B8-42B7-9418-A51B54D9724A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4907280" y="902278"/>
+          <a:ext cx="335280" cy="367145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="31000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>130253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>148441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C05EC5B-0458-4E99-85AE-6087D9C8DC64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4907280" y="1410413"/>
+          <a:ext cx="350520" cy="383948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="31000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3AB3CEB8-4A06-4D92-9E25-4B7EFF70A215}" name="Table1" displayName="Table1" ref="A1:I38" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I38" xr:uid="{3AB3CEB8-4A06-4D92-9E25-4B7EFF70A215}"/>
@@ -2433,25 +3141,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5892C8-CEFB-4EF2-A077-670A4997AB20}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="24" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="9" width="29.33203125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2480,7 +3188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -2500,7 +3208,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -2529,7 +3237,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2549,7 +3257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2575,7 +3283,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -2598,7 +3306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2621,7 +3329,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -2644,7 +3352,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>111</v>
       </c>
@@ -2673,7 +3381,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -2702,7 +3410,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -2725,7 +3433,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -2748,7 +3456,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -2777,7 +3485,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
@@ -2800,7 +3508,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>96</v>
       </c>
@@ -2829,7 +3537,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
@@ -2852,7 +3560,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
@@ -2872,7 +3580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>58</v>
       </c>
@@ -2892,7 +3600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>59</v>
       </c>
@@ -2912,7 +3620,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>61</v>
       </c>
@@ -2932,7 +3640,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -2952,7 +3660,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>63</v>
       </c>
@@ -2972,7 +3680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>66</v>
       </c>
@@ -3001,7 +3709,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
@@ -3030,7 +3738,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>74</v>
       </c>
@@ -3059,7 +3767,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>76</v>
       </c>
@@ -3088,7 +3796,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>80</v>
       </c>
@@ -3108,7 +3816,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>81</v>
       </c>
@@ -3128,7 +3836,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>83</v>
       </c>
@@ -3148,7 +3856,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>84</v>
       </c>
@@ -3168,7 +3876,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>85</v>
       </c>
@@ -3188,7 +3896,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>86</v>
       </c>
@@ -3208,7 +3916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>87</v>
       </c>
@@ -3231,7 +3939,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>90</v>
       </c>
@@ -3251,7 +3959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>91</v>
       </c>
@@ -3271,7 +3979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>101</v>
       </c>
@@ -3291,7 +3999,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>102</v>
       </c>
@@ -3335,19 +4043,19 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="19.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3393,13 +4101,13 @@
       <selection activeCell="AL17" sqref="AL17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="35" width="3" customWidth="1"/>
     <col min="36" max="36" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -3509,7 +4217,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -3605,7 +4313,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -3628,7 +4336,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
         <v>124</v>
       </c>
@@ -3652,7 +4360,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="L5" t="s">
         <v>124</v>
       </c>
@@ -3675,7 +4383,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="R6" t="s">
         <v>124</v>
       </c>
@@ -3699,7 +4407,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="T7" t="s">
         <v>124</v>
       </c>
@@ -3723,7 +4431,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="W8" s="8" t="s">
         <v>124</v>
       </c>
@@ -3747,7 +4455,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="X9" t="s">
         <v>124</v>
       </c>
@@ -3771,7 +4479,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="AB10" t="s">
         <v>124</v>
       </c>
@@ -3794,7 +4502,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="AJ11" t="s">
         <v>140</v>
       </c>
@@ -3803,4 +4511,170 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68570821-BE39-4596-85B4-C36E38B5F9BC}">
+  <dimension ref="A1:Z13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="31" width="3.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="X1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>145</v>
+      </c>
+      <c r="R2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S2" t="s">
+        <v>143</v>
+      </c>
+      <c r="T2" t="s">
+        <v>124</v>
+      </c>
+      <c r="U2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" t="s">
+        <v>118</v>
+      </c>
+      <c r="L4" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" t="s">
+        <v>128</v>
+      </c>
+      <c r="O4" t="s">
+        <v>148</v>
+      </c>
+      <c r="P4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S4" t="s">
+        <v>143</v>
+      </c>
+      <c r="T4" t="s">
+        <v>124</v>
+      </c>
+      <c r="U4" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/My Notes/PDSA/Time Complexities of Algorithms.xlsx
+++ b/My Notes/PDSA/Time Complexities of Algorithms.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Official\GitHub\IIT-M\My Notes\PDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A67990C-202F-48F0-B611-FF68019505A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98C69931-7CFF-4648-8E9F-07E9B23E9EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="3" xr2:uid="{5C42CCC7-008D-4AC4-95D9-90038B64D50F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{5C42CCC7-008D-4AC4-95D9-90038B64D50F}"/>
   </bookViews>
   <sheets>
     <sheet name="Info on Algos" sheetId="1" r:id="rId1"/>
     <sheet name="Chart" sheetId="4" r:id="rId2"/>
     <sheet name="Boyer Moore" sheetId="5" r:id="rId3"/>
     <sheet name="Edit distance" sheetId="6" r:id="rId4"/>
+    <sheet name="Subsequence" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -334,7 +335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="166">
   <si>
     <t>Algorithm</t>
   </si>
@@ -817,6 +818,27 @@
   </si>
   <si>
     <t>Total number of changes: 12</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>There are two longest subsequences between the two strings = BDCABADCD and ABCBDABACD</t>
+  </si>
+  <si>
+    <t>BCABCD and BDAABCD</t>
   </si>
 </sst>
 </file>
@@ -2819,6 +2841,576 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F54295FC-0244-BE5B-4ABC-E2C842B4C9FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="388620" y="510540"/>
+          <a:ext cx="365760" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72FF16B4-D751-40FC-95F0-16F31DDD4412}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="822960" y="739140"/>
+          <a:ext cx="167640" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43430F56-C407-401A-B63D-7881E0FB9FAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1043940" y="1348740"/>
+          <a:ext cx="152400" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FA10CF4-4F16-4D61-8D8F-6EE916A9A2FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1272540" y="1600200"/>
+          <a:ext cx="167640" cy="121920"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E3B1768-8189-4DEC-85EF-93CB18AA09F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1501140" y="1744980"/>
+          <a:ext cx="373380" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BB01453-97A8-4156-882E-A8D42D4D52D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1859280" y="1760220"/>
+          <a:ext cx="7620" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{172EBBC9-951A-40F6-A78C-61F6EC27D2F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="1981200"/>
+          <a:ext cx="198120" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27D0BFD-71CE-4389-8A3A-738CF533AB5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1181100" y="1341120"/>
+          <a:ext cx="7620" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B8B77C-0966-4B23-9788-07F28DB2D2BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="320040" y="518160"/>
+          <a:ext cx="236220" cy="579120"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B42D3D77-6913-44E3-A449-64C91931FDC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="563880" y="1203960"/>
+          <a:ext cx="7620" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E45E22D3-8FCD-4617-9956-F635072C8BC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="556260" y="1341120"/>
+          <a:ext cx="434340" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3141,8 +3733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5892C8-CEFB-4EF2-A077-670A4997AB20}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4517,7 +5109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68570821-BE39-4596-85B4-C36E38B5F9BC}">
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4677,4 +5269,168 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6575929C-84C4-4E29-AB1E-B97F4300FE57}">
+  <dimension ref="A1:W11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="10" width="3.109375" customWidth="1"/>
+    <col min="11" max="22" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" t="s">
+        <v>163</v>
+      </c>
+      <c r="W3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I4" t="s">
+        <v>163</v>
+      </c>
+      <c r="W4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" t="s">
+        <v>163</v>
+      </c>
+      <c r="J11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>